--- a/data/trans_bre/P15_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>-0,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,7%</t>
+          <t>-10,87%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 2,12</t>
+          <t>-4,01; 13,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 2,61</t>
+          <t>-5,27; 5,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 8,98</t>
+          <t>-5,76; 13,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 4,59</t>
+          <t>-15,5; 1,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 11,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 2,35</t>
+          <t>-4,39; 17,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 2,81</t>
+          <t>-5,4; 5,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 13,44</t>
+          <t>-7,91; 22,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 8,38</t>
+          <t>-23,52; 2,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 35,31</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>-1,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 3,41</t>
+          <t>0,22; 14,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 5,6</t>
+          <t>-1,74; 8,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 6,11</t>
+          <t>-7,63; 6,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 6,18</t>
+          <t>-5,01; 7,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 5,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 4,21</t>
+          <t>0,26; 20,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 6,51</t>
+          <t>-1,99; 10,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 10,61</t>
+          <t>-11,6; 10,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 16,4</t>
+          <t>-11,23; 20,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 20,53</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>-3,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,18%</t>
+          <t>-3,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 3,81</t>
+          <t>-12,89; 5,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,03</t>
+          <t>-9,01; 4,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 5,24</t>
+          <t>-8,79; 5,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 5,91</t>
+          <t>-6,45; 6,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 11,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 5,47</t>
+          <t>-17,47; 8,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 10,66</t>
+          <t>-10,82; 6,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 12,55</t>
+          <t>-17,42; 12,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 21,46</t>
+          <t>-18,88; 21,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 69,22</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>-2,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,58 +1054,186 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,15</t>
+          <t>-5,84; 0,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 4,45</t>
+          <t>-1,48; 5,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 4,66</t>
+          <t>-2,74; 13,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,73</t>
+          <t>-6,74; 1,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 5,24</t>
+          <t>-1,6; 6,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 8,38</t>
+          <t>-4,3; 24,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 9,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 22,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,14%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 2,41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 3,65</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 4,47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 3,33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 3,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 4,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 7,95</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,79; 8,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P15_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,46</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,22%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-10,87%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>4.731065561826975</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1225879545819208</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.607929032611977</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-6.358132422580431</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>0.05401196798459414</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.001294329992255475</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.0232556604897005</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1065389171633392</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 13,61</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,27; 5,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 13,88</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,5; 1,41</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 17,13</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 5,86</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; 22,89</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-23,52; 2,63</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.008298925336164</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.874115090231453</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.447552375774339</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-15.20594833598856</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.04386604314919573</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.05035938478811305</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.08785665927614604</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2319802849342446</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.61238177310906</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.409422377276083</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.13163592792055</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.571406875501298</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>0.1712651135163689</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.05898549977495107</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1955523246616241</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.02970836005394039</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,27%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-1,8%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 14,09</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 8,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 6,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 7,76</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 20,09</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 10,37</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-11,6; 10,6</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-11,23; 20,94</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>6.867228386559965</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.734957629978096</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.868956965021284</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.438241217828973</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>0.09273927981531264</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.03220328008931762</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.02995268972067257</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.03487943257021198</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,94</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,48</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,75</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-5,62%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-3,08%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,79%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.2184735545021791</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.309048615180297</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-8.181950690272675</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.412549693372382</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>0.00257714996475265</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.02673109410472228</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1233633860614211</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.122827776454117</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,89; 5,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,01; 4,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 5,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 6,01</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-17,47; 8,8</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-10,82; 6,19</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-17,42; 12,59</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-18,88; 21,71</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.09148819224851</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.80970160164062</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.179336387074271</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.534548902858068</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>0.2008723021174171</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1087582847289204</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.08955381003770989</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1989461464366206</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +855,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,51</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,11</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,95%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8,57%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.941809149669806</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.725227668016294</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.704208669687962</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.2626349824899787</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.05622247353152546</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.02150326673856164</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.0367017080104919</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.008446600223561885</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 0,92</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 5,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 13,53</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,74; 1,11</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 6,84</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 24,84</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.8881531701072</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.025076239326424</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.134857411649072</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.28706877013405</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.1746727313764608</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.09686762603330432</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1808345734414136</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1811264887444342</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.888318860723986</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.961825254067409</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.217477540930341</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.09461913442262</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.08803097153369979</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.07461655999561193</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1264287419304601</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.2277892447422449</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,8%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-1,14%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 2,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 3,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 4,47</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 3,33</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 3,01</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 4,2</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,15; 7,95</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-9,79; 8,58</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.693324781520456</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.9573343945277313</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.9604883377211215</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.3913949523047577</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>0.03590913065380418</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.01128748403265498</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.01639281945424413</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.009331058481728027</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.36779736488081</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.653513417462209</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.991139165858822</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.205220867498179</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.02974817660508077</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.03077874219758828</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.08239391692300368</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.0953541780351648</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.306476017195856</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.972691191103413</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.62734985662882</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.47757020475234</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.09975835476070119</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.05976914316926373</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.0643254526687716</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.08734342328050629</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
